--- a/Machine_learning_simulations/Exponential_models_results.xlsx
+++ b/Machine_learning_simulations/Exponential_models_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freedom\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freedom\Documents\GitHub\M21_paper_optimal_maintenance_strategy\Machine_learning_simulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D394A0D1-0971-43CC-978B-5B9CCC8DD8A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9930BD7C-2A20-4D7B-9F3E-AC04D22118EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samo Lambda" sheetId="4" r:id="rId1"/>
@@ -28,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Ime simulacije</t>
   </si>
   <si>
-    <t>MAE</t>
-  </si>
-  <si>
     <t>Training loss</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Tensorfolow_lambda(t)_LSTM_DNN</t>
   </si>
   <si>
-    <t>λ(t)(failure rate)_LSTM_GRU_RNN_GRU</t>
-  </si>
-  <si>
     <t>λ(t)(failure rate)_LSTM_GRU_RNN_LSTM</t>
   </si>
   <si>
@@ -103,6 +97,9 @@
   </si>
   <si>
     <t>μ(t)DNN_LSTM</t>
+  </si>
+  <si>
+    <t>λ(t)(failure rate)_encoder_decoder</t>
   </si>
 </sst>
 </file>
@@ -444,14 +441,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2F854D-1845-49A2-A8B8-C1B202F0D369}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B2:B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" customWidth="1"/>
-    <col min="2" max="3" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="29.21875" customWidth="1"/>
   </cols>
@@ -461,18 +459,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>0.22481219796176402</v>
@@ -483,7 +479,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>0.2991447887174285</v>
@@ -494,7 +490,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>0.37673116039864168</v>
@@ -505,7 +501,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>0.62369513511657715</v>
@@ -513,13 +509,11 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>1.1683065891265869</v>
@@ -527,13 +521,11 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>21.780060996323481</v>
@@ -541,14 +533,12 @@
       <c r="C7" s="1">
         <v>203</v>
       </c>
-      <c r="D7" s="1">
-        <v>14</v>
-      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <f>COUNT(C1:C7)</f>
@@ -578,14 +568,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBD1ED9-3A3A-4305-A620-B763FA16F748}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C2:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.33203125" customWidth="1"/>
-    <col min="2" max="4" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="52.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -593,18 +585,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>42066.334275595073</v>
@@ -615,7 +607,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>42370.479857120714</v>
@@ -626,7 +618,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>42487.240648987383</v>
@@ -637,7 +629,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <f>COUNT('Samo Lambda'!C5:C7)</f>
@@ -646,7 +638,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <f>3+12+12+9</f>
@@ -666,13 +658,14 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.44140625" customWidth="1"/>
-    <col min="2" max="3" width="27.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -680,18 +673,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>0.17679946254371137</v>
@@ -702,7 +693,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>0.23194096279944965</v>
@@ -713,7 +704,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>0.29170454118147859</v>
@@ -724,7 +715,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>0.40940344333648682</v>
@@ -732,13 +723,11 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>0.47383448481559753</v>
@@ -746,13 +735,11 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>27.799595959523501</v>
@@ -760,9 +747,7 @@
       <c r="C7" s="1">
         <v>198</v>
       </c>
-      <c r="D7" s="1">
-        <v>14</v>
-      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -799,7 +784,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <f>COUNT(C2:C13)</f>
@@ -820,7 +805,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C1:C4"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,18 +819,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>42066.334275595073</v>
@@ -856,7 +841,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>42370.479857120714</v>
@@ -867,7 +852,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>42487.240648987383</v>
@@ -878,7 +863,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <f>COUNT(C2:C4)</f>
@@ -887,7 +872,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <f>3+12+3</f>
